--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -46,18 +46,18 @@
     <t>war</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -76,6 +76,12 @@
     <t>drop</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,13 +94,16 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>join</t>
   </si>
   <si>
     <t>happy</t>
@@ -106,22 +115,22 @@
     <t>strong</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
@@ -133,76 +142,67 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -729,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8648648648648649</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -829,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9216710182767625</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5396825396825397</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.9069767441860465</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4651162790697674</v>
+        <v>0.5096899224806202</v>
       </c>
       <c r="C12">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D12">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0.9014084507042254</v>
@@ -1129,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.392156862745098</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8962264150943396</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3898305084745763</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1476510067114094</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15">
         <v>0.8875</v>
@@ -1275,17 +1275,41 @@
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8828125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,411 +1321,435 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1812080536912752</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>122</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L17">
+        <v>41</v>
+      </c>
+      <c r="M17">
+        <v>41</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
         <v>0.8620689655172413</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>50</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>50</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>70</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="L25">
         <v>37</v>
       </c>
-      <c r="K18">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>31</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
+      <c r="M25">
+        <v>37</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.76</v>
+      </c>
+      <c r="L26">
         <v>38</v>
       </c>
-      <c r="K19">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L19">
-        <v>70</v>
-      </c>
-      <c r="M19">
-        <v>70</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="M26">
+        <v>38</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="L20">
-        <v>40</v>
-      </c>
-      <c r="M20">
-        <v>40</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.7558823529411764</v>
+      </c>
+      <c r="L27">
+        <v>257</v>
+      </c>
+      <c r="M27">
+        <v>257</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.75</v>
+      </c>
+      <c r="L28">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.84</v>
-      </c>
-      <c r="L21">
-        <v>42</v>
-      </c>
-      <c r="M21">
-        <v>42</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>20</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L23">
-        <v>22</v>
-      </c>
-      <c r="M23">
-        <v>22</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L24">
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.735593220338983</v>
+      </c>
+      <c r="L29">
+        <v>217</v>
+      </c>
+      <c r="M29">
+        <v>217</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M24">
-        <v>51</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L25">
-        <v>38</v>
-      </c>
-      <c r="M25">
-        <v>38</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>0.7529411764705882</v>
-      </c>
-      <c r="L26">
-        <v>256</v>
-      </c>
-      <c r="M26">
-        <v>256</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>0.75</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="K30">
+        <v>0.7280334728033473</v>
+      </c>
+      <c r="L30">
+        <v>174</v>
+      </c>
+      <c r="M30">
+        <v>174</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30">
-        <v>0.7405857740585774</v>
-      </c>
-      <c r="L30">
-        <v>177</v>
-      </c>
-      <c r="M30">
-        <v>177</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31">
-        <v>0.7288135593220338</v>
-      </c>
-      <c r="L31">
-        <v>215</v>
-      </c>
-      <c r="M31">
-        <v>215</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1718,16 +1766,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.7021276595744681</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1739,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.6923076923076923</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1765,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.675</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1791,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6629213483146067</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L36">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1817,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.6428571428571429</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1843,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.6363636363636364</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1869,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1895,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5294117647058824</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1921,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.4931506849315068</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1947,59 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="L42">
-        <v>38</v>
-      </c>
-      <c r="M42">
-        <v>38</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
         <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L43">
-        <v>21</v>
-      </c>
-      <c r="M43">
-        <v>21</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
